--- a/datasets/ATCC_meropenem.xlsx
+++ b/datasets/ATCC_meropenem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E487B3-792D-3444-AC62-9E18CCA8DFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B77B28E-F803-054F-A82F-7936EC251410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3800" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="480" yWindow="3560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATCC_meropenem" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +178,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -521,8 +527,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -877,11 +884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,614 +911,614 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1">
         <v>8.9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="1">
         <v>8.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
         <v>8.9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="1">
         <v>10.220000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="1">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="1">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="1">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1">
         <v>9.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="1">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="1">
         <v>9.66</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="1">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>10000</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>10000</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="1">
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>10000</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="1">
         <v>9.6300000000000008</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>10000</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="1">
         <v>9.33</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>10000</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="1">
         <v>9.33</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>10000</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="1">
         <v>10.3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>10000</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="1">
         <v>16.829999999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>10000</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1">
         <v>24</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>10000</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="1">
         <v>24</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>10000</v>
-      </c>
-      <c r="D24">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="1">
         <v>9.92</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>10000</v>
-      </c>
-      <c r="D25">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="1">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>10000</v>
-      </c>
-      <c r="D26">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="1">
         <v>9.83</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>10000</v>
-      </c>
-      <c r="D27">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="1">
         <v>10.5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>10000</v>
-      </c>
-      <c r="D28">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>10000</v>
-      </c>
-      <c r="D29">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="1">
         <v>24</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>10000</v>
-      </c>
-      <c r="D30">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="1">
         <v>24</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>10000</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="1">
         <v>9.92</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>10000</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="1">
         <v>9</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>5</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>10000</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="1">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>10000</v>
-      </c>
-      <c r="D34">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="1">
         <v>9.66</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>10000</v>
-      </c>
-      <c r="D35">
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="1">
         <v>16.829999999999998</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>10000</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="1">
         <v>24</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>0.125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>10000</v>
-      </c>
-      <c r="D37">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="1">
         <v>24</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>0.25</v>
       </c>
     </row>
